--- a/testFile.xlsx
+++ b/testFile.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +49,6 @@
   </si>
   <si>
     <t>track_undef_null.js</t>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
@@ -273,6 +265,26 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>test7.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3d-morph.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trace?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入了object的trace收集情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实的例子改写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -652,22 +664,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="59.125" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="3" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -675,13 +687,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -691,11 +706,12 @@
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -705,11 +721,12 @@
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="5"/>
+      <c r="E3" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -717,13 +734,14 @@
         <v>16</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -733,11 +751,12 @@
       <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="5"/>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -745,13 +764,14 @@
         <v>16</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -759,119 +779,152 @@
         <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="5">
+        <v>57</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="1:4" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
